--- a/data/ctrl_OS.xlsx
+++ b/data/ctrl_OS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.padgett\_R_\R_PSM_example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F615B-B456-41C6-A8F8-455EFCC660FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA07699-FC88-419F-B30C-AD11F4790E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="2940" windowWidth="16455" windowHeight="12210" xr2:uid="{4C23678F-9697-4631-8C8E-51A7BC629CDF}"/>
+    <workbookView xWindow="-10350" yWindow="1155" windowWidth="9330" windowHeight="19965" xr2:uid="{4C23678F-9697-4631-8C8E-51A7BC629CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
         <v>0.22997946599999999</v>
       </c>
       <c r="C3">
-        <v>0.99765700000000002</v>
+        <v>0.9731568354476684</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>0.45995893199999999</v>
       </c>
       <c r="C4">
-        <v>0.99765700000000002</v>
+        <v>0.97201683544766804</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>0.68993839800000001</v>
       </c>
       <c r="C5">
-        <v>0.99530700000000005</v>
+        <v>0.97086454605030847</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,7 +467,7 @@
         <v>0.91991786399999997</v>
       </c>
       <c r="C6">
-        <v>0.98829500000000003</v>
+        <v>0.96402474466550481</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>1.149897331</v>
       </c>
       <c r="C7">
-        <v>0.95948800000000001</v>
+        <v>0.93592517842305767</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>1.3798767970000001</v>
       </c>
       <c r="C8">
-        <v>0.94669499999999995</v>
+        <v>0.9234463451207483</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>1.609856263</v>
       </c>
       <c r="C9">
-        <v>0.93816600000000006</v>
+        <v>0.91512679777177663</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>1.839835729</v>
       </c>
       <c r="C10">
-        <v>0.91684399999999999</v>
+        <v>0.89432841712049538</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>2.0698151949999999</v>
       </c>
       <c r="C11">
-        <v>0.88486100000000001</v>
+        <v>0.86313084614357372</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>2.299794661</v>
       </c>
       <c r="C12">
-        <v>0.86780400000000002</v>
+        <v>0.84649272688792687</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>2.529774127</v>
       </c>
       <c r="C13">
-        <v>0.86140700000000003</v>
+        <v>0.84025282251562383</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>2.7597535930000001</v>
       </c>
       <c r="C14">
-        <v>0.84861399999999998</v>
+        <v>0.82777398921331447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>2.9897330599999998</v>
       </c>
       <c r="C15">
-        <v>0.84221699999999999</v>
+        <v>0.82153408484101142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>3.2197125259999999</v>
       </c>
       <c r="C16">
-        <v>0.82942400000000005</v>
+        <v>0.80905525153870217</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>3.449691992</v>
       </c>
       <c r="C17">
-        <v>0.816631</v>
+        <v>0.7965764182363928</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>3.6796714580000001</v>
       </c>
       <c r="C18">
-        <v>0.79957400000000001</v>
+        <v>0.77993829898074596</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>3.9096509240000001</v>
       </c>
       <c r="C19">
-        <v>0.78891299999999998</v>
+        <v>0.76953910865510533</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>4.1396303899999998</v>
       </c>
       <c r="C20">
-        <v>0.78891299999999998</v>
+        <v>0.76953910865510533</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>4.3696098560000003</v>
       </c>
       <c r="C21">
-        <v>0.76332599999999995</v>
+        <v>0.74458046660818988</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>4.5995893219999999</v>
       </c>
       <c r="C22">
-        <v>0.76185499999999995</v>
+        <v>0.74314559098967214</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>4.8295687889999996</v>
       </c>
       <c r="C23">
-        <v>0.75266500000000003</v>
+        <v>0.73418127628254937</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>5.0595482550000002</v>
       </c>
       <c r="C24">
-        <v>0.73773999999999995</v>
+        <v>0.71962280000357126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>5.2895277209999998</v>
       </c>
       <c r="C25">
-        <v>0.71428599999999998</v>
+        <v>0.69674477637562138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>5.5195071870000003</v>
       </c>
       <c r="C26">
-        <v>0.70362499999999994</v>
+        <v>0.68634558604998075</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>5.7494866529999999</v>
       </c>
       <c r="C27">
-        <v>0.68869899999999995</v>
+        <v>0.67178613432870593</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>5.9794661189999996</v>
       </c>
       <c r="C28">
-        <v>0.67377399999999998</v>
+        <v>0.65722765804972783</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>6.2094455850000001</v>
       </c>
       <c r="C29">
-        <v>0.67377399999999998</v>
+        <v>0.65722765804972783</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>6.4394250509999997</v>
       </c>
       <c r="C30">
-        <v>0.65671599999999997</v>
+        <v>0.64058856335178427</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>6.6694045170000003</v>
       </c>
       <c r="C31">
-        <v>0.64605500000000005</v>
+        <v>0.63018937302614375</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>6.899383984</v>
       </c>
       <c r="C32">
-        <v>0.63752699999999995</v>
+        <v>0.62187080111946857</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>7.1293634499999996</v>
       </c>
       <c r="C33">
-        <v>0.61194000000000004</v>
+        <v>0.59691215907255324</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>7.3593429160000001</v>
       </c>
       <c r="C34">
-        <v>0.59061799999999998</v>
+        <v>0.57611377842127209</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>7.5893223819999998</v>
       </c>
       <c r="C35">
-        <v>0.58209</v>
+        <v>0.56779520651459703</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>7.8193018480000003</v>
       </c>
       <c r="C36">
-        <v>0.57356099999999999</v>
+        <v>0.55947565916562525</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>8.0492813139999999</v>
       </c>
       <c r="C37">
-        <v>0.55650299999999997</v>
+        <v>0.54283656446768158</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>8.2792607799999995</v>
       </c>
       <c r="C38">
-        <v>0.55437099999999995</v>
+        <v>0.54075692149101273</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>8.5092402459999992</v>
       </c>
       <c r="C39">
-        <v>0.55437099999999995</v>
+        <v>0.54075692149101273</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
         <v>8.7392197130000007</v>
       </c>
       <c r="C40">
-        <v>0.52238799999999996</v>
+        <v>0.50955935051409107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>8.9691991790000003</v>
       </c>
       <c r="C41">
-        <v>0.52238799999999996</v>
+        <v>0.50955935051409107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>9.1991786449999999</v>
       </c>
       <c r="C42">
-        <v>0.50319800000000003</v>
+        <v>0.49084061283947877</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>9.4291581109999996</v>
       </c>
       <c r="C43">
-        <v>0.49680200000000002</v>
+        <v>0.4846016839094725</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>9.6591375769999992</v>
       </c>
       <c r="C44">
-        <v>0.49680200000000002</v>
+        <v>0.4846016839094725</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>9.8891170430000006</v>
       </c>
       <c r="C45">
-        <v>0.48614099999999999</v>
+        <v>0.47420249358383187</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>10.11909651</v>
       </c>
       <c r="C46">
-        <v>0.46908300000000003</v>
+        <v>0.45756339888588832</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>10.34907598</v>
       </c>
       <c r="C47">
-        <v>0.45415800000000001</v>
+        <v>0.44300492260691021</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>10.579055439999999</v>
       </c>
       <c r="C48">
-        <v>0.43496800000000002</v>
+        <v>0.42428618493229786</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>10.809034909999999</v>
       </c>
       <c r="C49">
-        <v>0.432836</v>
+        <v>0.42220654195562907</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>11.03901437</v>
       </c>
       <c r="C50">
-        <v>0.42217500000000002</v>
+        <v>0.41180735162998849</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>11.26899384</v>
       </c>
       <c r="C51">
-        <v>0.41791</v>
+        <v>0.40764709023435419</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>11.49897331</v>
       </c>
       <c r="C52">
-        <v>0.40938200000000002</v>
+        <v>0.39932851832767918</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>11.728952769999999</v>
       </c>
       <c r="C53">
-        <v>0.40938200000000002</v>
+        <v>0.39932851832767918</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>11.958932239999999</v>
       </c>
       <c r="C54">
-        <v>0.39300000000000002</v>
+        <v>0.38334882262233783</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>12.1889117</v>
       </c>
       <c r="C55">
-        <v>0.39290000000000003</v>
+        <v>0.38325127839266299</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>12.41889117</v>
       </c>
       <c r="C56">
-        <v>0.37526700000000002</v>
+        <v>0.36605130437408867</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>12.64887064</v>
       </c>
       <c r="C57">
-        <v>0.36460599999999999</v>
+        <v>0.3556521140484481</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>12.878850099999999</v>
       </c>
       <c r="C58">
-        <v>0.36460599999999999</v>
+        <v>0.3556521140484481</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
         <v>13.108829569999999</v>
       </c>
       <c r="C59">
-        <v>0.358209</v>
+        <v>0.34941220967614506</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
         <v>13.33880903</v>
       </c>
       <c r="C60">
-        <v>0.358209</v>
+        <v>0.34941220967614506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>13.5687885</v>
       </c>
       <c r="C61">
-        <v>0.345416</v>
+        <v>0.33693337637383575</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>13.79876797</v>
       </c>
       <c r="C62">
-        <v>0.345416</v>
+        <v>0.33693337637383575</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>14.028747429999999</v>
       </c>
       <c r="C63">
-        <v>0.33901900000000001</v>
+        <v>0.33069347200153271</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>14.258726899999999</v>
       </c>
       <c r="C64">
-        <v>0.32196200000000003</v>
+        <v>0.31405535274588586</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>14.488706369999999</v>
       </c>
       <c r="C65">
-        <v>0.31556499999999998</v>
+        <v>0.30781544837358277</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>14.71868583</v>
       </c>
       <c r="C66">
-        <v>0.31556499999999998</v>
+        <v>0.30781544837358277</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>14.9486653</v>
       </c>
       <c r="C67">
-        <v>0.31556499999999998</v>
+        <v>0.30781544837358277</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>15.178644759999999</v>
       </c>
       <c r="C68">
-        <v>0.31556499999999998</v>
+        <v>0.30781544837358277</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,7 +1160,7 @@
         <v>15.408624229999999</v>
       </c>
       <c r="C69">
-        <v>0.30490400000000001</v>
+        <v>0.29741625804794225</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,7 +1171,7 @@
         <v>15.638603700000001</v>
       </c>
       <c r="C70">
-        <v>0.30490400000000001</v>
+        <v>0.29741625804794225</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>15.86858316</v>
       </c>
       <c r="C71">
-        <v>0.30490400000000001</v>
+        <v>0.29741625804794225</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>16.09856263</v>
       </c>
       <c r="C72">
-        <v>0.296375</v>
+        <v>0.28909671069897042</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>16.328542089999999</v>
       </c>
       <c r="C73">
-        <v>0.296375</v>
+        <v>0.28909671069897042</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>16.558521559999999</v>
       </c>
       <c r="C74">
-        <v>0.26652500000000001</v>
+        <v>0.25997975814101426</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>16.788501029999999</v>
       </c>
       <c r="C75">
-        <v>0.26439200000000002</v>
+        <v>0.25789913972204875</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>17.018480490000002</v>
       </c>
       <c r="C76">
-        <v>0.257996</v>
+        <v>0.25166021079204243</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
         <v>17.248459960000002</v>
       </c>
       <c r="C77">
-        <v>0.25373099999999998</v>
+        <v>0.24749994939640813</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>17.478439430000002</v>
       </c>
       <c r="C78">
-        <v>0.245203</v>
+        <v>0.23918137748973309</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
         <v>17.708418890000001</v>
       </c>
       <c r="C79">
-        <v>0.24093800000000001</v>
+        <v>0.23502111609409881</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>17.938398360000001</v>
       </c>
       <c r="C80">
-        <v>0.236674</v>
+        <v>0.23086183014076128</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>18.16837782</v>
       </c>
       <c r="C81">
-        <v>0.236674</v>
+        <v>0.23086183014076128</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
         <v>18.39835729</v>
       </c>
       <c r="C82">
-        <v>0.223881</v>
+        <v>0.21838299683845194</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>18.62833676</v>
       </c>
       <c r="C83">
-        <v>0.223881</v>
+        <v>0.21838299683845194</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>18.858316219999999</v>
       </c>
       <c r="C84">
-        <v>0.221748</v>
+        <v>0.21630237841948644</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>19.088295689999999</v>
       </c>
       <c r="C85">
-        <v>0.221748</v>
+        <v>0.21630237841948644</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>19.318275150000002</v>
       </c>
       <c r="C86">
-        <v>0.21748400000000001</v>
+        <v>0.21214309246614893</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>19.548254620000002</v>
       </c>
       <c r="C87">
-        <v>0.21321999999999999</v>
+        <v>0.20798380651281137</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1369,7 +1369,7 @@
         <v>19.778234090000002</v>
       </c>
       <c r="C88">
-        <v>0.20469100000000001</v>
+        <v>0.19966425916383959</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>20.008213550000001</v>
       </c>
       <c r="C89">
-        <v>0.20042599999999999</v>
+        <v>0.19550399776820529</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>20.238193020000001</v>
       </c>
       <c r="C90">
-        <v>0.196162</v>
+        <v>0.19134471181486779</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>20.46817248</v>
       </c>
       <c r="C91">
-        <v>0.19189800000000001</v>
+        <v>0.18718542586153025</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>20.69815195</v>
       </c>
       <c r="C92">
-        <v>0.19189800000000001</v>
+        <v>0.18718542586153025</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
         <v>20.92813142</v>
       </c>
       <c r="C93">
-        <v>0.18976499999999999</v>
+        <v>0.18510480744256472</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>21.158110879999999</v>
       </c>
       <c r="C94">
-        <v>0.18976499999999999</v>
+        <v>0.18510480744256472</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>21.388090349999999</v>
       </c>
       <c r="C95">
-        <v>0.18976499999999999</v>
+        <v>0.18510480744256472</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>21.618069819999999</v>
       </c>
       <c r="C96">
-        <v>0.18976499999999999</v>
+        <v>0.18510480744256472</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>21.848049280000001</v>
       </c>
       <c r="C97">
-        <v>0.18763299999999999</v>
+        <v>0.18302516446589595</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>22.078028750000001</v>
       </c>
       <c r="C98">
-        <v>0.183369</v>
+        <v>0.17886587851255845</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
         <v>22.308008210000001</v>
       </c>
       <c r="C99">
-        <v>0.183369</v>
+        <v>0.17886587851255845</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>22.537987680000001</v>
       </c>
       <c r="C100">
-        <v>0.17484</v>
+        <v>0.17054633116358664</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>22.76796715</v>
       </c>
       <c r="C101">
-        <v>0.17057600000000001</v>
+        <v>0.16638704521024911</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>22.99794661</v>
       </c>
       <c r="C102">
-        <v>0.16417899999999999</v>
+        <v>0.16014714083794607</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>23.22792608</v>
       </c>
       <c r="C103">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
         <v>23.457905539999999</v>
       </c>
       <c r="C104">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
         <v>23.687885009999999</v>
       </c>
       <c r="C105">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1567,7 +1567,7 @@
         <v>23.917864479999999</v>
       </c>
       <c r="C106">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
         <v>24.147843940000001</v>
       </c>
       <c r="C107">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
         <v>24.377823410000001</v>
       </c>
       <c r="C108">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>24.60780287</v>
       </c>
       <c r="C109">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1611,7 +1611,7 @@
         <v>24.83778234</v>
       </c>
       <c r="C110">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1622,7 +1622,7 @@
         <v>25.06776181</v>
       </c>
       <c r="C111">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
         <v>25.29774127</v>
       </c>
       <c r="C112">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>25.527720739999999</v>
       </c>
       <c r="C113">
-        <v>0.161</v>
+        <v>0.15704620977658115</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>25.757700209999999</v>
       </c>
       <c r="C114">
-        <v>0.15778300000000001</v>
+        <v>0.15390821190793977</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>25.987679669999999</v>
       </c>
       <c r="C115">
-        <v>0.15778300000000001</v>
+        <v>0.15390821190793977</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>26.217659139999999</v>
       </c>
       <c r="C116">
-        <v>0.15778300000000001</v>
+        <v>0.15390821190793977</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1688,7 +1688,7 @@
         <v>26.447638600000001</v>
       </c>
       <c r="C117">
-        <v>0.15351799999999999</v>
+        <v>0.14974795051230549</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1699,7 +1699,7 @@
         <v>26.677618070000001</v>
       </c>
       <c r="C118">
-        <v>0.15351799999999999</v>
+        <v>0.14974795051230549</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1710,7 +1710,7 @@
         <v>26.907597540000001</v>
       </c>
       <c r="C119">
-        <v>0.15138599999999999</v>
+        <v>0.14766830753563673</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1721,7 +1721,7 @@
         <v>27.137577</v>
       </c>
       <c r="C120">
-        <v>0.15138599999999999</v>
+        <v>0.14766830753563673</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
         <v>27.36755647</v>
       </c>
       <c r="C121">
-        <v>0.149254</v>
+        <v>0.14558866455896796</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1743,7 +1743,7 @@
         <v>27.597535929999999</v>
       </c>
       <c r="C122">
-        <v>0.149254</v>
+        <v>0.14558866455896796</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>27.827515399999999</v>
       </c>
       <c r="C123">
-        <v>0.149254</v>
+        <v>0.14558866455896796</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>28.057494869999999</v>
       </c>
       <c r="C124">
-        <v>0.14285700000000001</v>
+        <v>0.13934876018666495</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,7 +1776,7 @@
         <v>28.287474329999998</v>
       </c>
       <c r="C125">
-        <v>0.134328</v>
+        <v>0.13102921283769312</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1787,7 +1787,7 @@
         <v>28.517453799999998</v>
       </c>
       <c r="C126">
-        <v>0.134328</v>
+        <v>0.13102921283769312</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>28.747433260000001</v>
       </c>
       <c r="C127">
-        <v>0.134328</v>
+        <v>0.13102921283769312</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
         <v>28.977412730000001</v>
       </c>
       <c r="C128">
-        <v>0.13219600000000001</v>
+        <v>0.12894956986102438</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>29.207392200000001</v>
       </c>
       <c r="C129">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>29.43737166</v>
       </c>
       <c r="C130">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>29.66735113</v>
       </c>
       <c r="C131">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>29.8973306</v>
       </c>
       <c r="C132">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
         <v>30.127310059999999</v>
       </c>
       <c r="C133">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -1875,7 +1875,7 @@
         <v>30.357289529999999</v>
       </c>
       <c r="C134">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>30.587268989999998</v>
       </c>
       <c r="C135">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -1897,7 +1897,7 @@
         <v>30.817248459999998</v>
       </c>
       <c r="C136">
-        <v>0.13006400000000001</v>
+        <v>0.12686992688435561</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>31.047227929999998</v>
       </c>
       <c r="C137">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>31.277207390000001</v>
       </c>
       <c r="C138">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -1930,7 +1930,7 @@
         <v>31.507186860000001</v>
       </c>
       <c r="C139">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>31.73716632</v>
       </c>
       <c r="C140">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -1952,7 +1952,7 @@
         <v>31.96714579</v>
       </c>
       <c r="C141">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>32.19712526</v>
       </c>
       <c r="C142">
-        <v>0.1258</v>
+        <v>0.12271064093101806</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>32.427104720000003</v>
       </c>
       <c r="C143">
-        <v>0.123667</v>
+        <v>0.12063002251205256</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
         <v>32.657084189999999</v>
       </c>
       <c r="C144">
-        <v>0.123667</v>
+        <v>0.12063002251205256</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -1996,7 +1996,7 @@
         <v>32.887063660000003</v>
       </c>
       <c r="C145">
-        <v>0.123667</v>
+        <v>0.12063002251205256</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
         <v>33.117043119999998</v>
       </c>
       <c r="C146">
-        <v>0.123667</v>
+        <v>0.12063002251205256</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2018,7 +2018,7 @@
         <v>33.347022590000002</v>
       </c>
       <c r="C147">
-        <v>0.117271</v>
+        <v>0.11439109358204626</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>33.577002049999997</v>
       </c>
       <c r="C148">
-        <v>0.117271</v>
+        <v>0.11439109358204626</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,7 +2040,7 @@
         <v>33.806981520000001</v>
       </c>
       <c r="C149">
-        <v>0.11513900000000001</v>
+        <v>0.11231145060537751</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2051,7 +2051,7 @@
         <v>34.036960989999997</v>
       </c>
       <c r="C150">
-        <v>0.11513900000000001</v>
+        <v>0.11231145060537751</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2062,7 +2062,7 @@
         <v>34.26694045</v>
       </c>
       <c r="C151">
-        <v>0.11513900000000001</v>
+        <v>0.11231145060537751</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>34.496919920000003</v>
       </c>
       <c r="C152">
-        <v>0.11513900000000001</v>
+        <v>0.11231145060537751</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>34.726899379999999</v>
       </c>
       <c r="C153">
-        <v>0.10874200000000001</v>
+        <v>0.10607154623307447</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>34.956878850000003</v>
       </c>
       <c r="C154">
-        <v>0.104478</v>
+        <v>0.10191226027973693</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2106,7 +2106,7 @@
         <v>35.186858319999999</v>
       </c>
       <c r="C155">
-        <v>0.104478</v>
+        <v>0.10191226027973693</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>35.416837780000002</v>
       </c>
       <c r="C156">
-        <v>0.104478</v>
+        <v>0.10191226027973693</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>35.646817249999998</v>
       </c>
       <c r="C157">
-        <v>9.8081000000000002E-2</v>
+        <v>9.5672355907433893E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2139,7 +2139,7 @@
         <v>35.876796710000001</v>
       </c>
       <c r="C158">
-        <v>9.8081000000000002E-2</v>
+        <v>9.5672355907433893E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>36.106776179999997</v>
       </c>
       <c r="C159">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>36.336755650000001</v>
       </c>
       <c r="C160">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
         <v>36.566735110000003</v>
       </c>
       <c r="C161">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,7 +2183,7 @@
         <v>36.79671458</v>
       </c>
       <c r="C162">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
         <v>37.026694050000003</v>
       </c>
       <c r="C163">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
         <v>37.256673509999999</v>
       </c>
       <c r="C164">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
         <v>37.486652980000002</v>
       </c>
       <c r="C165">
-        <v>9.4E-2</v>
+        <v>9.1691575894401411E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>37.716632439999998</v>
       </c>
       <c r="C166">
-        <v>8.9552199999999998E-2</v>
+        <v>8.7353003646921432E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2238,7 +2238,7 @@
         <v>37.946611910000001</v>
       </c>
       <c r="C167">
-        <v>8.9552199999999998E-2</v>
+        <v>8.7353003646921432E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
         <v>38.176591379999998</v>
       </c>
       <c r="C168">
-        <v>8.9552199999999998E-2</v>
+        <v>8.7353003646921432E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2260,7 +2260,7 @@
         <v>38.406570840000001</v>
       </c>
       <c r="C169">
-        <v>8.7419999999999998E-2</v>
+        <v>8.527316558179332E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
         <v>38.636550309999997</v>
       </c>
       <c r="C170">
-        <v>8.7419999999999998E-2</v>
+        <v>8.527316558179332E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>38.86652977</v>
       </c>
       <c r="C171">
-        <v>8.5287799999999997E-2</v>
+        <v>8.3193327516665194E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>39.096509240000003</v>
       </c>
       <c r="C172">
-        <v>8.5287799999999997E-2</v>
+        <v>8.3193327516665194E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2304,7 +2304,7 @@
         <v>39.32648871</v>
       </c>
       <c r="C173">
-        <v>8.5287799999999997E-2</v>
+        <v>8.3193327516665194E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>39.556468170000002</v>
       </c>
       <c r="C174">
-        <v>8.1023499999999998E-2</v>
+        <v>7.903374893063865E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
         <v>39.786447639999999</v>
       </c>
       <c r="C175">
-        <v>7.6759099999999997E-2</v>
+        <v>7.4874072800382413E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>40.016427100000001</v>
       </c>
       <c r="C176">
-        <v>7.6759099999999997E-2</v>
+        <v>7.4874072800382413E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2348,7 +2348,7 @@
         <v>40.246406569999998</v>
       </c>
       <c r="C177">
-        <v>7.0362499999999994E-2</v>
+        <v>6.8634558604998078E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2359,7 +2359,7 @@
         <v>40.476386040000001</v>
       </c>
       <c r="C178">
-        <v>7.0362499999999994E-2</v>
+        <v>6.8634558604998078E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
         <v>40.706365499999997</v>
       </c>
       <c r="C179">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>40.93634497</v>
       </c>
       <c r="C180">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2392,7 +2392,7 @@
         <v>41.166324439999997</v>
       </c>
       <c r="C181">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -2403,7 +2403,7 @@
         <v>41.396303899999999</v>
       </c>
       <c r="C182">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>41.626283370000003</v>
       </c>
       <c r="C183">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>41.856262829999999</v>
       </c>
       <c r="C184">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -2436,7 +2436,7 @@
         <v>42.086242300000002</v>
       </c>
       <c r="C185">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
         <v>42.316221769999999</v>
       </c>
       <c r="C186">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>42.546201230000001</v>
       </c>
       <c r="C187">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>42.776180699999998</v>
       </c>
       <c r="C188">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2480,7 +2480,7 @@
         <v>43.00616016</v>
       </c>
       <c r="C189">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2491,7 +2491,7 @@
         <v>43.236139629999997</v>
       </c>
       <c r="C190">
-        <v>6.6098100000000007E-2</v>
+        <v>6.4474882474741854E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
         <v>43.4661191</v>
       </c>
       <c r="C191">
-        <v>6.1833699999999998E-2</v>
+        <v>6.0315206344485624E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
         <v>43.696098560000003</v>
       </c>
       <c r="C192">
-        <v>5.9701499999999998E-2</v>
+        <v>5.8235368279357512E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>43.926078029999999</v>
       </c>
       <c r="C193">
-        <v>5.9701499999999998E-2</v>
+        <v>5.8235368279357512E-2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>44.156057490000002</v>
       </c>
       <c r="C194">
-        <v>5.9701499999999998E-2</v>
+        <v>5.8235368279357512E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2546,7 +2546,7 @@
         <v>44.386036959999998</v>
       </c>
       <c r="C195">
-        <v>5.3304900000000002E-2</v>
+        <v>5.199585408397317E-2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>44.616016430000002</v>
       </c>
       <c r="C196">
-        <v>5.3304900000000002E-2</v>
+        <v>5.199585408397317E-2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>44.845995889999998</v>
       </c>
       <c r="C197">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2579,7 +2579,7 @@
         <v>45.075975360000001</v>
       </c>
       <c r="C198">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2590,7 +2590,7 @@
         <v>45.305954829999997</v>
       </c>
       <c r="C199">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>45.53593429</v>
       </c>
       <c r="C200">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
         <v>45.765913759999997</v>
       </c>
       <c r="C201">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2623,7 +2623,7 @@
         <v>45.995893219999999</v>
       </c>
       <c r="C202">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2634,7 +2634,7 @@
         <v>46.225872690000003</v>
       </c>
       <c r="C203">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2645,7 +2645,7 @@
         <v>46.455852159999999</v>
       </c>
       <c r="C204">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
         <v>46.685831620000002</v>
       </c>
       <c r="C205">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2667,7 +2667,7 @@
         <v>46.915811089999998</v>
       </c>
       <c r="C206">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
         <v>47.145790550000001</v>
       </c>
       <c r="C207">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2689,7 +2689,7 @@
         <v>47.375770019999997</v>
       </c>
       <c r="C208">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>47.605749490000001</v>
       </c>
       <c r="C209">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
         <v>47.835728949999996</v>
       </c>
       <c r="C210">
-        <v>5.1172700000000002E-2</v>
+        <v>4.9916016018845058E-2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>48.06570842</v>
       </c>
       <c r="C211">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>48.295687890000004</v>
       </c>
       <c r="C212">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2744,7 +2744,7 @@
         <v>48.525667349999999</v>
       </c>
       <c r="C213">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
         <v>48.755646820000003</v>
       </c>
       <c r="C214">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2766,7 +2766,7 @@
         <v>48.985626279999998</v>
       </c>
       <c r="C215">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -2777,7 +2777,7 @@
         <v>49.215605750000002</v>
       </c>
       <c r="C216">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2788,7 +2788,7 @@
         <v>49.445585219999998</v>
       </c>
       <c r="C217">
-        <v>4.7E-2</v>
+        <v>4.5845787947200706E-2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2799,7 +2799,7 @@
         <v>49.675564680000001</v>
       </c>
       <c r="C218">
-        <v>4.69083E-2</v>
+        <v>4.5756339888588828E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -2810,7 +2810,7 @@
         <v>49.905544149999997</v>
       </c>
       <c r="C219">
-        <v>4.69083E-2</v>
+        <v>4.5756339888588828E-2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>50.13552361</v>
       </c>
       <c r="C220">
-        <v>4.4776099999999999E-2</v>
+        <v>4.3676501823460716E-2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>50.365503080000003</v>
       </c>
       <c r="C221">
-        <v>4.4776099999999999E-2</v>
+        <v>4.3676501823460716E-2</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -2843,7 +2843,7 @@
         <v>50.59548255</v>
       </c>
       <c r="C222">
-        <v>4.2643899999999998E-2</v>
+        <v>4.1596663758332597E-2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -2854,7 +2854,7 @@
         <v>50.825462010000003</v>
       </c>
       <c r="C223">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
         <v>51.055441479999999</v>
       </c>
       <c r="C224">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -2876,7 +2876,7 @@
         <v>51.285420940000002</v>
       </c>
       <c r="C225">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -2887,7 +2887,7 @@
         <v>51.515400409999998</v>
       </c>
       <c r="C226">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -2898,7 +2898,7 @@
         <v>51.745379880000002</v>
       </c>
       <c r="C227">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>51.975359339999997</v>
       </c>
       <c r="C228">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
         <v>52.205338810000001</v>
       </c>
       <c r="C229">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -2931,7 +2931,7 @@
         <v>52.435318279999997</v>
       </c>
       <c r="C230">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -2942,7 +2942,7 @@
         <v>52.66529774</v>
       </c>
       <c r="C231">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -2953,7 +2953,7 @@
         <v>52.895277210000003</v>
       </c>
       <c r="C232">
-        <v>3.1982900000000002E-2</v>
+        <v>3.1197473432692035E-2</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
         <v>53.125256669999999</v>
       </c>
       <c r="C233">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
         <v>53.355236140000002</v>
       </c>
       <c r="C234">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
         <v>53.585215609999999</v>
       </c>
       <c r="C235">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>53.815195070000001</v>
       </c>
       <c r="C236">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3008,7 +3008,7 @@
         <v>54.045174539999998</v>
       </c>
       <c r="C237">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3019,7 +3019,7 @@
         <v>54.275154000000001</v>
       </c>
       <c r="C238">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3030,7 +3030,7 @@
         <v>54.505133469999997</v>
       </c>
       <c r="C239">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3041,7 +3041,7 @@
         <v>54.73511294</v>
       </c>
       <c r="C240">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>54.965092400000003</v>
       </c>
       <c r="C241">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -3063,7 +3063,7 @@
         <v>55.19507187</v>
       </c>
       <c r="C242">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -3074,7 +3074,7 @@
         <v>55.425051330000002</v>
       </c>
       <c r="C243">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>55.655030799999999</v>
       </c>
       <c r="C244">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -3096,7 +3096,7 @@
         <v>55.885010270000002</v>
       </c>
       <c r="C245">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>56.114989729999998</v>
       </c>
       <c r="C246">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
         <v>56.344969200000001</v>
       </c>
       <c r="C247">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
         <v>56.574948669999998</v>
       </c>
       <c r="C248">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -3140,7 +3140,7 @@
         <v>56.80492813</v>
       </c>
       <c r="C249">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>57.034907599999997</v>
       </c>
       <c r="C250">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -3162,7 +3162,7 @@
         <v>57.26488706</v>
       </c>
       <c r="C251">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
         <v>57.494866530000003</v>
       </c>
       <c r="C252">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -3184,7 +3184,7 @@
         <v>57.724845999999999</v>
       </c>
       <c r="C253">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -3195,7 +3195,7 @@
         <v>57.954825460000002</v>
       </c>
       <c r="C254">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
         <v>58.184804929999999</v>
       </c>
       <c r="C255">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -3217,7 +3217,7 @@
         <v>58.414784390000001</v>
       </c>
       <c r="C256">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
         <v>58.644763859999998</v>
       </c>
       <c r="C257">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -3239,7 +3239,7 @@
         <v>58.874743330000001</v>
       </c>
       <c r="C258">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -3250,7 +3250,7 @@
         <v>59.104722789999997</v>
       </c>
       <c r="C259">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -3261,7 +3261,7 @@
         <v>59.33470226</v>
       </c>
       <c r="C260">
-        <v>2.9850700000000001E-2</v>
+        <v>2.911763536756392E-2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -3272,7 +3272,7 @@
         <v>59.564681720000003</v>
       </c>
       <c r="C261">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
         <v>59.794661189999999</v>
       </c>
       <c r="C262">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -3294,7 +3294,7 @@
         <v>60.024640660000003</v>
       </c>
       <c r="C263">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -3305,7 +3305,7 @@
         <v>60.254620119999998</v>
       </c>
       <c r="C264">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -3316,7 +3316,7 @@
         <v>60.484599590000002</v>
       </c>
       <c r="C265">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -3327,7 +3327,7 @@
         <v>60.714579059999998</v>
       </c>
       <c r="C266">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>60.944558520000001</v>
       </c>
       <c r="C267">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>61.174537989999997</v>
       </c>
       <c r="C268">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -3360,7 +3360,7 @@
         <v>61.40451745</v>
       </c>
       <c r="C269">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
         <v>61.634496919999997</v>
       </c>
       <c r="C270">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
         <v>61.86447639</v>
       </c>
       <c r="C271">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
         <v>62.094455850000003</v>
       </c>
       <c r="C272">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
         <v>62.324435319999999</v>
       </c>
       <c r="C273">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -3415,7 +3415,7 @@
         <v>62.554414780000002</v>
       </c>
       <c r="C274">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -3426,7 +3426,7 @@
         <v>62.784394249999998</v>
       </c>
       <c r="C275">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>63.014373720000002</v>
       </c>
       <c r="C276">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -3448,7 +3448,7 @@
         <v>63.244353179999997</v>
       </c>
       <c r="C277">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -3459,7 +3459,7 @@
         <v>63.474332650000001</v>
       </c>
       <c r="C278">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
         <v>63.704312109999996</v>
       </c>
       <c r="C279">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -3481,7 +3481,7 @@
         <v>63.93429158</v>
       </c>
       <c r="C280">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -3492,7 +3492,7 @@
         <v>64.164271049999996</v>
       </c>
       <c r="C281">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
         <v>64.394250510000006</v>
       </c>
       <c r="C282">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
         <v>64.624229979999996</v>
       </c>
       <c r="C283">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
         <v>64.854209449999999</v>
       </c>
       <c r="C284">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -3536,7 +3536,7 @@
         <v>65.084188909999995</v>
       </c>
       <c r="C285">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>65.314168379999998</v>
       </c>
       <c r="C286">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -3558,7 +3558,7 @@
         <v>65.544147839999994</v>
       </c>
       <c r="C287">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -3569,7 +3569,7 @@
         <v>65.774127309999997</v>
       </c>
       <c r="C288">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -3580,7 +3580,7 @@
         <v>66.004106780000001</v>
       </c>
       <c r="C289">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>66.234086239999996</v>
       </c>
       <c r="C290">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -3602,7 +3602,7 @@
         <v>66.46406571</v>
       </c>
       <c r="C291">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -3613,7 +3613,7 @@
         <v>66.694045169999995</v>
       </c>
       <c r="C292">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -3624,7 +3624,7 @@
         <v>66.924024639999999</v>
       </c>
       <c r="C293">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>67.154004110000002</v>
       </c>
       <c r="C294">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -3646,7 +3646,7 @@
         <v>67.383983569999998</v>
       </c>
       <c r="C295">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -3657,7 +3657,7 @@
         <v>67.613963040000002</v>
       </c>
       <c r="C296">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -3668,7 +3668,7 @@
         <v>67.843942510000005</v>
       </c>
       <c r="C297">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0484288231727977E-2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,7 +3679,7 @@
         <v>68.073921970000001</v>
       </c>
       <c r="C298">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,7 +3690,7 @@
         <v>68.303901440000004</v>
       </c>
       <c r="C299">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>68.5338809</v>
       </c>
       <c r="C300">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
         <v>68.763860370000003</v>
       </c>
       <c r="C301">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,7 +3723,7 @@
         <v>68.993839840000007</v>
       </c>
       <c r="C302">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>69.223819300000002</v>
       </c>
       <c r="C303">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -3745,7 +3745,7 @@
         <v>69.453798770000006</v>
       </c>
       <c r="C304">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>69.683778230000001</v>
       </c>
       <c r="C305">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
         <v>69.913757700000005</v>
       </c>
       <c r="C306">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -3778,7 +3778,7 @@
         <v>70.143737169999994</v>
       </c>
       <c r="C307">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -3789,7 +3789,7 @@
         <v>70.373716630000004</v>
       </c>
       <c r="C308">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
         <v>70.603696099999993</v>
       </c>
       <c r="C309">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -3811,7 +3811,7 @@
         <v>70.833675560000003</v>
       </c>
       <c r="C310">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>71.063655030000007</v>
       </c>
       <c r="C311">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
         <v>71.293634499999996</v>
       </c>
       <c r="C312">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -3844,7 +3844,7 @@
         <v>71.523613960000006</v>
       </c>
       <c r="C313">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -3855,7 +3855,7 @@
         <v>71.753593429999995</v>
       </c>
       <c r="C314">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -3866,7 +3866,7 @@
         <v>71.983572899999999</v>
       </c>
       <c r="C315">
-        <v>7.0093500000000003E-2</v>
+        <v>6.8372164627172619E-2</v>
       </c>
     </row>
   </sheetData>
